--- a/Spreadsheet Software/Gay_lord_Toat_Log.xlsx
+++ b/Spreadsheet Software/Gay_lord_Toat_Log.xlsx
@@ -1,33 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2040" yWindow="1740" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2040" yWindow="1740" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Tote/ Gaylord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Rec'vd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store # </t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Date Processed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manifest # </t>
+  </si>
+  <si>
+    <t>Seal #</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,81 +90,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -166,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -201,7 +186,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -378,195 +363,65 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A13:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="A8:G14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="16.42578125" customWidth="1" min="1" max="1"/>
-    <col width="19.140625" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="21.5703125" customWidth="1" min="4" max="4"/>
-    <col width="15.5703125" customWidth="1" min="5" max="6"/>
-    <col width="16.7109375" customWidth="1" min="7" max="7"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Tote</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2022-07-04</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2022-07-04</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>651516546</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>No Tags</t>
-        </is>
+    <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Gaylord</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2022-07-04</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Collectables</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2022-07-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Tote</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2022-07-04</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2022-07-04</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>565676</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Tote</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2022-07-04</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2022-07-04</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>679579</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Gaylord</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2022-07-04</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Collectables</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2022-07-04</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3473375733</t>
-        </is>
-      </c>
-    </row>
+    <row r="2" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>